--- a/biology/Médecine/Sécurité_solaire/Sécurité_solaire.xlsx
+++ b/biology/Médecine/Sécurité_solaire/Sécurité_solaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9curit%C3%A9_solaire</t>
+          <t>Sécurité_solaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association Sécurité solaire est un centre collaborateur de l'Organisation mondiale de la santé (OMS) pour l'éducation solaire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association Sécurité solaire est un centre collaborateur de l'Organisation mondiale de la santé (OMS) pour l'éducation solaire.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9curit%C3%A9_solaire</t>
+          <t>Sécurité_solaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association a été créée en 1994. Elle a pour objet de sensibiliser et d'informer la population sur les risques pour la santé liés aux surexpositions solaires[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association a été créée en 1994. Elle a pour objet de sensibiliser et d'informer la population sur les risques pour la santé liés aux surexpositions solaires.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9curit%C3%A9_solaire</t>
+          <t>Sécurité_solaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La météo solaire : d'avril à septembre, des prévisions de l'indice UV sont envoyés aux médias français.
-Le programme Vivre avec le soleil : un programme de prévention solaire destiné informer et protéger les enfants, via leurs éducateurs (enseignants, animateurs, parents)[3].</t>
+Le programme Vivre avec le soleil : un programme de prévention solaire destiné informer et protéger les enfants, via leurs éducateurs (enseignants, animateurs, parents).</t>
         </is>
       </c>
     </row>
